--- a/public/TipoSaida.xlsx
+++ b/public/TipoSaida.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UniServerZ\www\tesoureiros\tesoureiros\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UniServerZ\www\ng\tesoureiros\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,37 +24,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Nome</t>
+    <t>nome</t>
   </si>
   <si>
-    <t>Telefone</t>
+    <t>Geral</t>
   </si>
   <si>
-    <t xml:space="preserve">Rafael </t>
+    <t>detalhes</t>
   </si>
   <si>
-    <t>Ana Laura</t>
-  </si>
-  <si>
-    <t>Necy</t>
+    <t>Gerais</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -82,9 +71,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,15 +353,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -381,35 +369,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="B2">
-        <v>9876555656</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>32763352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>987989889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
